--- a/database/industries/ghaza/ghebshahr/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghebshahr/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghebshahr\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghebshahr\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927F66A-FB75-4FF1-944D-51F72600169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F4360-A021-4D4B-B4F8-47B037534BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>غبشهر-صنعتی‌ بهشهر</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-12-12 (8)</t>
+  </si>
+  <si>
+    <t>1398-01-27</t>
+  </si>
+  <si>
+    <t>1398-05-28 (2)</t>
+  </si>
+  <si>
+    <t>1398-07-28</t>
+  </si>
+  <si>
+    <t>1400-01-19 (8)</t>
+  </si>
+  <si>
+    <t>1399-01-30</t>
+  </si>
+  <si>
+    <t>1399-05-29 (2)</t>
+  </si>
+  <si>
+    <t>1399-07-23</t>
+  </si>
+  <si>
     <t>1401-01-20 (8)</t>
   </si>
   <si>
@@ -94,10 +148,16 @@
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1402-01-30 (4)</t>
+    <t>1402-08-01 (8)</t>
   </si>
   <si>
     <t>1402-01-30</t>
+  </si>
+  <si>
+    <t>1402-05-14 (2)</t>
+  </si>
+  <si>
+    <t>1402-08-01 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,10 +801,14 @@
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="13" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="19" width="29" customWidth="1"/>
+    <col min="20" max="20" width="31" customWidth="1"/>
+    <col min="21" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +821,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +847,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +873,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +897,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +923,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +949,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +973,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1019,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1129,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,190 +1155,350 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>174874</v>
+      </c>
+      <c r="E12" s="15">
+        <v>331529</v>
+      </c>
+      <c r="F12" s="15">
+        <v>400629</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1126110</v>
+      </c>
+      <c r="H12" s="15">
+        <v>206972</v>
+      </c>
+      <c r="I12" s="15">
+        <v>891571</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2303801</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1846613</v>
+      </c>
+      <c r="L12" s="15">
         <v>2598585</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>3310943</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>4164319</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>5180714</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>5308935</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>6617206</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>12120164</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>5268285</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>3100201</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>8959672</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>9612850</v>
+      </c>
+      <c r="W12" s="15">
+        <v>7390558</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>153242</v>
+      </c>
+      <c r="E13" s="11">
+        <v>89242</v>
+      </c>
+      <c r="F13" s="11">
+        <v>89242</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>9445</v>
+      </c>
+      <c r="I13" s="11">
+        <v>341700</v>
+      </c>
+      <c r="J13" s="11">
+        <v>509292</v>
+      </c>
+      <c r="K13" s="11">
+        <v>509292</v>
+      </c>
+      <c r="L13" s="11">
         <v>9292</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>9292</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>2637728</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1567202</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2090756</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1638385</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2230601</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2935810</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1673055</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1197527</v>
+      </c>
+      <c r="L14" s="15">
         <v>2433946</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="15">
         <v>3709307</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>4100504</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>3087630</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>2404272</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>2367296</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>11808098</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>10105921</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>10606387</v>
       </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
         <v>15011154</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="15">
+        <v>14765262</v>
+      </c>
+      <c r="W14" s="15">
+        <v>10971808</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>4577364</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3287748</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3664579</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5307108</v>
+      </c>
+      <c r="H15" s="11">
+        <v>6362105</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4353920</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4117964</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4958054</v>
+      </c>
+      <c r="L15" s="11">
         <v>6519273</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>7148340</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>9156675</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>12077659</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>12935354</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>11003776</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>26974881</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>39291829</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>54478770</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>31456567</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>40685744</v>
+      </c>
+      <c r="W15" s="11">
+        <v>41985881</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>3392805</v>
+      </c>
+      <c r="E16" s="15">
+        <v>4804889</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5220735</v>
+      </c>
+      <c r="G16" s="15">
+        <v>6708975</v>
+      </c>
+      <c r="H16" s="15">
+        <v>5398350</v>
+      </c>
+      <c r="I16" s="15">
+        <v>4223428</v>
+      </c>
+      <c r="J16" s="15">
+        <v>4848660</v>
+      </c>
+      <c r="K16" s="15">
+        <v>5081254</v>
+      </c>
+      <c r="L16" s="15">
         <v>8124820</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>15846900</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>16484132</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>14452768</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>10940027</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>15604750</v>
       </c>
-      <c r="J16" s="15">
+      <c r="R16" s="15">
         <v>5434431</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>16967613</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>6989481</v>
       </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
         <v>17470436</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>3995939</v>
+      </c>
+      <c r="W16" s="15">
+        <v>20978045</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1167,118 +1531,238 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>10936013</v>
+      </c>
+      <c r="E18" s="17">
+        <v>10080610</v>
+      </c>
+      <c r="F18" s="17">
+        <v>11465941</v>
+      </c>
+      <c r="G18" s="17">
+        <v>14788578</v>
+      </c>
+      <c r="H18" s="17">
+        <v>14207473</v>
+      </c>
+      <c r="I18" s="17">
+        <v>12746429</v>
+      </c>
+      <c r="J18" s="17">
+        <v>13452772</v>
+      </c>
+      <c r="K18" s="17">
+        <v>13592740</v>
+      </c>
+      <c r="L18" s="17">
         <v>19685916</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>30024782</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>33905630</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>34798771</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>31588588</v>
       </c>
-      <c r="I18" s="17">
+      <c r="Q18" s="17">
         <v>35593028</v>
       </c>
-      <c r="J18" s="17">
+      <c r="R18" s="17">
         <v>56337574</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>71633648</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>75174839</v>
       </c>
-      <c r="M18" s="17">
+      <c r="U18" s="17">
         <v>72897829</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="17">
+        <v>69059795</v>
+      </c>
+      <c r="W18" s="17">
+        <v>81326292</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>29614</v>
+      </c>
+      <c r="E19" s="11">
+        <v>26491</v>
+      </c>
+      <c r="F19" s="11">
+        <v>28064</v>
+      </c>
+      <c r="G19" s="11">
+        <v>25215</v>
+      </c>
+      <c r="H19" s="11">
+        <v>24679</v>
+      </c>
+      <c r="I19" s="11">
+        <v>19023</v>
+      </c>
+      <c r="J19" s="11">
+        <v>33197</v>
+      </c>
+      <c r="K19" s="11">
+        <v>20236</v>
+      </c>
+      <c r="L19" s="11">
         <v>25125</v>
       </c>
-      <c r="E19" s="11">
+      <c r="M19" s="11">
         <v>19250</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>24170</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>19050</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>29537</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>47537</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>86388</v>
       </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>129120</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>165839</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="11">
+        <v>164943</v>
+      </c>
+      <c r="W19" s="11">
+        <v>181259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>4331</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3576</v>
+      </c>
+      <c r="F20" s="15">
+        <v>5239</v>
+      </c>
+      <c r="G20" s="15">
+        <v>4331</v>
+      </c>
+      <c r="H20" s="15">
+        <v>6368</v>
+      </c>
+      <c r="I20" s="15">
+        <v>6369</v>
+      </c>
+      <c r="J20" s="15">
+        <v>6368</v>
+      </c>
+      <c r="K20" s="15">
+        <v>6368</v>
+      </c>
+      <c r="L20" s="15">
         <v>6270</v>
       </c>
-      <c r="E20" s="15">
+      <c r="M20" s="15">
         <v>6270</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>4020</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>4020</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>342000</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>377897</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>343021</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>343021</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>680973</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>680973</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>680697</v>
+      </c>
+      <c r="W20" s="15">
+        <v>680696</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1311,118 +1795,238 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>2273568</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2382971</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2393631</v>
+      </c>
+      <c r="G22" s="15">
+        <v>2562464</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2849152</v>
+      </c>
+      <c r="I22" s="15">
+        <v>3253663</v>
+      </c>
+      <c r="J22" s="15">
+        <v>3071343</v>
+      </c>
+      <c r="K22" s="15">
+        <v>3831308</v>
+      </c>
+      <c r="L22" s="15">
         <v>3861734</v>
       </c>
-      <c r="E22" s="15">
+      <c r="M22" s="15">
         <v>4809253</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>4436317</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>5444948</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>24645764</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>25066137</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>25464111</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>25881027</v>
       </c>
-      <c r="L22" s="15">
-        <v>26249996</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="T22" s="15">
+        <v>26249989</v>
+      </c>
+      <c r="U22" s="15">
         <v>26892921</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>26969133</v>
+      </c>
+      <c r="W22" s="15">
+        <v>27218408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2100</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2100</v>
+      </c>
+      <c r="H23" s="11">
+        <v>17529</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2100</v>
+      </c>
+      <c r="J23" s="11">
+        <v>31875</v>
+      </c>
+      <c r="K23" s="11">
+        <v>17529</v>
+      </c>
+      <c r="L23" s="11">
         <v>56085</v>
       </c>
-      <c r="E23" s="11">
+      <c r="M23" s="11">
         <v>56085</v>
       </c>
-      <c r="F23" s="11">
+      <c r="N23" s="11">
         <v>183852</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>167668</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>153221</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>137036</v>
       </c>
-      <c r="J23" s="11">
+      <c r="R23" s="11">
         <v>121196</v>
       </c>
-      <c r="K23" s="11">
+      <c r="S23" s="11">
         <v>105972</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>89787</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>76263</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>56976</v>
+      </c>
+      <c r="W23" s="11">
+        <v>41181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1438,7 +2042,7 @@
         <v>8669</v>
       </c>
       <c r="H25" s="11">
-        <v>8676</v>
+        <v>8669</v>
       </c>
       <c r="I25" s="11">
         <v>8669</v>
@@ -1453,84 +2057,174 @@
         <v>8669</v>
       </c>
       <c r="M25" s="11">
+        <v>8669</v>
+      </c>
+      <c r="N25" s="11">
+        <v>8669</v>
+      </c>
+      <c r="O25" s="11">
+        <v>8669</v>
+      </c>
+      <c r="P25" s="11">
         <v>8676</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q25" s="11">
+        <v>8669</v>
+      </c>
+      <c r="R25" s="11">
+        <v>8669</v>
+      </c>
+      <c r="S25" s="11">
+        <v>8669</v>
+      </c>
+      <c r="T25" s="11">
+        <v>8676</v>
+      </c>
+      <c r="U25" s="11">
+        <v>8676</v>
+      </c>
+      <c r="V25" s="11">
+        <v>8676</v>
+      </c>
+      <c r="W25" s="11">
+        <v>8676</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>2318282</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2423807</v>
+      </c>
+      <c r="F26" s="17">
+        <v>2437703</v>
+      </c>
+      <c r="G26" s="17">
+        <v>2602779</v>
+      </c>
+      <c r="H26" s="17">
+        <v>2906397</v>
+      </c>
+      <c r="I26" s="17">
+        <v>3289824</v>
+      </c>
+      <c r="J26" s="17">
+        <v>3151452</v>
+      </c>
+      <c r="K26" s="17">
+        <v>3884110</v>
+      </c>
+      <c r="L26" s="17">
         <v>3957883</v>
       </c>
-      <c r="E26" s="17">
+      <c r="M26" s="17">
         <v>4899527</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>4657028</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>5644355</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>25179198</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>25637276</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>26023385</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>26338689</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>27158545</v>
       </c>
-      <c r="M26" s="17">
+      <c r="U26" s="17">
         <v>27824672</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="17">
+        <v>27880425</v>
+      </c>
+      <c r="W26" s="17">
+        <v>28130220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>13254295</v>
+      </c>
+      <c r="E27" s="19">
+        <v>12504417</v>
+      </c>
+      <c r="F27" s="19">
+        <v>13903644</v>
+      </c>
+      <c r="G27" s="19">
+        <v>17391357</v>
+      </c>
+      <c r="H27" s="19">
+        <v>17113870</v>
+      </c>
+      <c r="I27" s="19">
+        <v>16036253</v>
+      </c>
+      <c r="J27" s="19">
+        <v>16604224</v>
+      </c>
+      <c r="K27" s="19">
+        <v>17476850</v>
+      </c>
+      <c r="L27" s="19">
         <v>23643799</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>34924309</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>38562658</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>40443126</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>56767786</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="19">
         <v>61230304</v>
       </c>
-      <c r="J27" s="19">
+      <c r="R27" s="19">
         <v>82360959</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>97972337</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>102333384</v>
       </c>
-      <c r="M27" s="19">
+      <c r="U27" s="19">
         <v>100722501</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>96940220</v>
+      </c>
+      <c r="W27" s="19">
+        <v>109456512</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,262 +2237,482 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>3857147</v>
+      </c>
+      <c r="E29" s="15">
+        <v>3448511</v>
+      </c>
+      <c r="F29" s="15">
+        <v>4271984</v>
+      </c>
+      <c r="G29" s="15">
+        <v>3907641</v>
+      </c>
+      <c r="H29" s="15">
+        <v>3770729</v>
+      </c>
+      <c r="I29" s="15">
+        <v>3972294</v>
+      </c>
+      <c r="J29" s="15">
+        <v>3363945</v>
+      </c>
+      <c r="K29" s="15">
+        <v>3724886</v>
+      </c>
+      <c r="L29" s="15">
         <v>5316560</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>4776552</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>5345903</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>7561004</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>5765133</v>
       </c>
-      <c r="I29" s="15">
+      <c r="Q29" s="15">
         <v>4652372</v>
       </c>
-      <c r="J29" s="15">
+      <c r="R29" s="15">
         <v>26746295</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>25858885</v>
       </c>
-      <c r="L29" s="15">
+      <c r="T29" s="15">
         <v>14298084</v>
       </c>
-      <c r="M29" s="15">
+      <c r="U29" s="15">
         <v>16671963</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V29" s="15">
+        <v>11305974</v>
+      </c>
+      <c r="W29" s="15">
+        <v>10795018</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>113142</v>
+      </c>
+      <c r="E31" s="15">
+        <v>98382</v>
+      </c>
+      <c r="F31" s="15">
+        <v>69349</v>
+      </c>
+      <c r="G31" s="15">
+        <v>95123</v>
+      </c>
+      <c r="H31" s="15">
+        <v>44926</v>
+      </c>
+      <c r="I31" s="15">
+        <v>42300</v>
+      </c>
+      <c r="J31" s="15">
+        <v>70447</v>
+      </c>
+      <c r="K31" s="15">
+        <v>8284</v>
+      </c>
+      <c r="L31" s="15">
         <v>57848</v>
       </c>
-      <c r="E31" s="15">
+      <c r="M31" s="15">
         <v>42752</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>26664</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>23250</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>20969</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>5033</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>53026</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>27695</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>57568</v>
       </c>
-      <c r="M31" s="15">
+      <c r="U31" s="15">
         <v>59081</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="15">
+        <v>26666</v>
+      </c>
+      <c r="W31" s="15">
+        <v>25905</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>534718</v>
+      </c>
+      <c r="E32" s="11">
+        <v>659960</v>
+      </c>
+      <c r="F32" s="11">
+        <v>694867</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1023133</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1244315</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1539391</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1432086</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1613747</v>
+      </c>
+      <c r="L32" s="11">
         <v>1954152</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>2439587</v>
       </c>
-      <c r="F32" s="11">
+      <c r="N32" s="11">
         <v>2693435</v>
       </c>
-      <c r="G32" s="11">
+      <c r="O32" s="11">
         <v>3066746</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>3214835</v>
       </c>
-      <c r="I32" s="11">
+      <c r="Q32" s="11">
         <v>3621394</v>
       </c>
-      <c r="J32" s="11">
+      <c r="R32" s="11">
         <v>4046359</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>5235093</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>4679854</v>
       </c>
-      <c r="M32" s="11">
+      <c r="U32" s="11">
         <v>6010949</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="11">
+        <v>5701740</v>
+      </c>
+      <c r="W32" s="11">
+        <v>6033581</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>52487</v>
+      </c>
+      <c r="E33" s="15">
+        <v>48248</v>
+      </c>
+      <c r="F33" s="15">
+        <v>496791</v>
+      </c>
+      <c r="G33" s="15">
+        <v>440552</v>
+      </c>
+      <c r="H33" s="15">
+        <v>60920</v>
+      </c>
+      <c r="I33" s="15">
+        <v>53954</v>
+      </c>
+      <c r="J33" s="15">
+        <v>952985</v>
+      </c>
+      <c r="K33" s="15">
+        <v>894757</v>
+      </c>
+      <c r="L33" s="15">
         <v>105287</v>
       </c>
-      <c r="E33" s="15">
+      <c r="M33" s="15">
         <v>99724</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>696983</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>631549</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>125431</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>120006</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>1653166</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>1523210</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>69843</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>62889</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>5071434</v>
+      </c>
+      <c r="W33" s="15">
+        <v>119905</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>1175592</v>
+      </c>
+      <c r="E34" s="11">
+        <v>100800</v>
+      </c>
+      <c r="F34" s="11">
+        <v>574780</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3090545</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1788150</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
         <v>4666172</v>
       </c>
-      <c r="E34" s="11">
+      <c r="M34" s="11">
         <v>14330844</v>
       </c>
-      <c r="F34" s="11">
+      <c r="N34" s="11">
         <v>15559415</v>
       </c>
-      <c r="G34" s="11">
+      <c r="O34" s="11">
         <v>13675051</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="11">
         <v>12647269</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q34" s="11">
         <v>16706747</v>
       </c>
-      <c r="J34" s="11">
+      <c r="R34" s="11">
         <v>10715753</v>
       </c>
-      <c r="K34" s="11">
+      <c r="S34" s="11">
         <v>22272284</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>37142753</v>
       </c>
-      <c r="M34" s="11">
+      <c r="U34" s="11">
         <v>26358611</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V34" s="11">
+        <v>25482489</v>
+      </c>
+      <c r="W34" s="11">
+        <v>42455020</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>1143219</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1468057</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1375704</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1561260</v>
+      </c>
+      <c r="H35" s="15">
+        <v>2142584</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1528399</v>
+      </c>
+      <c r="J35" s="15">
+        <v>2582811</v>
+      </c>
+      <c r="K35" s="15">
+        <v>3075574</v>
+      </c>
+      <c r="L35" s="15">
         <v>2622699</v>
       </c>
-      <c r="E35" s="15">
+      <c r="M35" s="15">
         <v>2422445</v>
       </c>
-      <c r="F35" s="15">
+      <c r="N35" s="15">
         <v>2415684</v>
       </c>
-      <c r="G35" s="15">
+      <c r="O35" s="15">
         <v>2569830</v>
       </c>
-      <c r="H35" s="15">
+      <c r="P35" s="15">
         <v>2657801</v>
       </c>
-      <c r="I35" s="15">
+      <c r="Q35" s="15">
         <v>2912250</v>
       </c>
-      <c r="J35" s="15">
+      <c r="R35" s="15">
         <v>2851365</v>
       </c>
-      <c r="K35" s="15">
+      <c r="S35" s="15">
         <v>2961559</v>
       </c>
-      <c r="L35" s="15">
+      <c r="T35" s="15">
         <v>3559732</v>
       </c>
-      <c r="M35" s="15">
+      <c r="U35" s="15">
         <v>4349993</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V35" s="15">
+        <v>4666932</v>
+      </c>
+      <c r="W35" s="15">
+        <v>5059564</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1831,46 +2745,106 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>6876305</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5823958</v>
+      </c>
+      <c r="F37" s="17">
+        <v>7483475</v>
+      </c>
+      <c r="G37" s="17">
+        <v>10118254</v>
+      </c>
+      <c r="H37" s="17">
+        <v>9051624</v>
+      </c>
+      <c r="I37" s="17">
+        <v>7136338</v>
+      </c>
+      <c r="J37" s="17">
+        <v>8402274</v>
+      </c>
+      <c r="K37" s="17">
+        <v>9317248</v>
+      </c>
+      <c r="L37" s="17">
         <v>14722718</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>24111904</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>26738084</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>27527430</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>24431438</v>
       </c>
-      <c r="I37" s="17">
+      <c r="Q37" s="17">
         <v>28017802</v>
       </c>
-      <c r="J37" s="17">
+      <c r="R37" s="17">
         <v>46065964</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>57878726</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>59807834</v>
       </c>
-      <c r="M37" s="17">
+      <c r="U37" s="17">
         <v>53513486</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="17">
+        <v>52255235</v>
+      </c>
+      <c r="W37" s="17">
+        <v>64488993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1903,46 +2877,106 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>40</v>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1975,118 +3009,238 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>305214</v>
+      </c>
+      <c r="E41" s="15">
+        <v>297362</v>
+      </c>
+      <c r="F41" s="15">
+        <v>352145</v>
+      </c>
+      <c r="G41" s="15">
+        <v>351179</v>
+      </c>
+      <c r="H41" s="15">
+        <v>342716</v>
+      </c>
+      <c r="I41" s="15">
+        <v>341247</v>
+      </c>
+      <c r="J41" s="15">
+        <v>390579</v>
+      </c>
+      <c r="K41" s="15">
+        <v>383141</v>
+      </c>
+      <c r="L41" s="15">
         <v>414831</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>409396</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>520440</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>522195</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>521588</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>524339</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>742026</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>838322</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>853512</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>875513</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>1065154</v>
+      </c>
+      <c r="W41" s="15">
+        <v>1165734</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>305214</v>
+      </c>
+      <c r="E42" s="19">
+        <v>297362</v>
+      </c>
+      <c r="F42" s="19">
+        <v>352145</v>
+      </c>
+      <c r="G42" s="19">
+        <v>351179</v>
+      </c>
+      <c r="H42" s="19">
+        <v>342716</v>
+      </c>
+      <c r="I42" s="19">
+        <v>341247</v>
+      </c>
+      <c r="J42" s="19">
+        <v>390579</v>
+      </c>
+      <c r="K42" s="19">
+        <v>383141</v>
+      </c>
+      <c r="L42" s="19">
         <v>414831</v>
       </c>
-      <c r="E42" s="19">
+      <c r="M42" s="19">
         <v>409396</v>
       </c>
-      <c r="F42" s="19">
+      <c r="N42" s="19">
         <v>520440</v>
       </c>
-      <c r="G42" s="19">
+      <c r="O42" s="19">
         <v>522195</v>
       </c>
-      <c r="H42" s="19">
+      <c r="P42" s="19">
         <v>521588</v>
       </c>
-      <c r="I42" s="19">
+      <c r="Q42" s="19">
         <v>524339</v>
       </c>
-      <c r="J42" s="19">
+      <c r="R42" s="19">
         <v>742026</v>
       </c>
-      <c r="K42" s="19">
+      <c r="S42" s="19">
         <v>838322</v>
       </c>
-      <c r="L42" s="19">
+      <c r="T42" s="19">
         <v>853512</v>
       </c>
-      <c r="M42" s="19">
+      <c r="U42" s="19">
         <v>875513</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>1065154</v>
+      </c>
+      <c r="W42" s="19">
+        <v>1165734</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>7181519</v>
+      </c>
+      <c r="E43" s="17">
+        <v>6121320</v>
+      </c>
+      <c r="F43" s="17">
+        <v>7835620</v>
+      </c>
+      <c r="G43" s="17">
+        <v>10469433</v>
+      </c>
+      <c r="H43" s="17">
+        <v>9394340</v>
+      </c>
+      <c r="I43" s="17">
+        <v>7477585</v>
+      </c>
+      <c r="J43" s="17">
+        <v>8792853</v>
+      </c>
+      <c r="K43" s="17">
+        <v>9700389</v>
+      </c>
+      <c r="L43" s="17">
         <v>15137549</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>24521300</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>27258524</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>28049625</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>24953026</v>
       </c>
-      <c r="I43" s="17">
+      <c r="Q43" s="17">
         <v>28542141</v>
       </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
         <v>46807990</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>58717048</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>60661346</v>
       </c>
-      <c r="M43" s="17">
+      <c r="U43" s="17">
         <v>54388999</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V43" s="17">
+        <v>53320389</v>
+      </c>
+      <c r="W43" s="17">
+        <v>65654727</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,10 +3253,20 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2118,27 +3282,57 @@
         <v>3000000</v>
       </c>
       <c r="H45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="N45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="P45" s="15">
         <v>22000000</v>
       </c>
-      <c r="I45" s="15">
+      <c r="Q45" s="15">
         <v>22000000</v>
       </c>
-      <c r="J45" s="15">
+      <c r="R45" s="15">
         <v>22000000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="S45" s="15">
         <v>22000000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="T45" s="15">
         <v>29500000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="U45" s="15">
         <v>29500000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V45" s="15">
+        <v>29500000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>29500000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2171,10 +3365,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2207,10 +3431,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2226,99 +3480,189 @@
         <v>0</v>
       </c>
       <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
         <v>-37479</v>
       </c>
-      <c r="I48" s="11">
+      <c r="Q48" s="11">
         <v>-37479</v>
       </c>
-      <c r="J48" s="11">
+      <c r="R48" s="11">
         <v>-44785</v>
       </c>
-      <c r="K48" s="11">
+      <c r="S48" s="11">
         <v>-44785</v>
       </c>
-      <c r="L48" s="11">
+      <c r="T48" s="11">
         <v>-85006</v>
       </c>
-      <c r="M48" s="11">
+      <c r="U48" s="11">
         <v>-141199</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V48" s="11">
+        <v>-181522</v>
+      </c>
+      <c r="W48" s="11">
+        <v>-176539</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
         <v>4199</v>
       </c>
-      <c r="I49" s="15">
+      <c r="Q49" s="15">
         <v>4199</v>
       </c>
-      <c r="J49" s="15">
+      <c r="R49" s="15">
         <v>7709</v>
       </c>
-      <c r="K49" s="15">
+      <c r="S49" s="15">
         <v>7709</v>
       </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
         <v>44532</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V49" s="15">
+        <v>56191</v>
+      </c>
+      <c r="W49" s="15">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>257995</v>
+      </c>
+      <c r="E50" s="11">
+        <v>257995</v>
+      </c>
+      <c r="F50" s="11">
+        <v>257995</v>
+      </c>
+      <c r="G50" s="11">
+        <v>257995</v>
+      </c>
+      <c r="H50" s="11">
         <v>300000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="I50" s="11">
         <v>300000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="J50" s="11">
         <v>300000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
         <v>300000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
+        <v>300000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>300000</v>
+      </c>
+      <c r="N50" s="11">
+        <v>300000</v>
+      </c>
+      <c r="O50" s="11">
+        <v>300000</v>
+      </c>
+      <c r="P50" s="11">
         <v>550354</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>550354</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>550354</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>550354</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>1124354</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>1124354</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>1124354</v>
+      </c>
+      <c r="W50" s="11">
+        <v>1124354</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2351,46 +3695,106 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>40</v>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2423,46 +3827,106 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>40</v>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2495,116 +3959,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>2814781</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3125102</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2810029</v>
+      </c>
+      <c r="G56" s="11">
+        <v>3663929</v>
+      </c>
+      <c r="H56" s="11">
+        <v>4419530</v>
+      </c>
+      <c r="I56" s="11">
+        <v>5258668</v>
+      </c>
+      <c r="J56" s="11">
+        <v>4511371</v>
+      </c>
+      <c r="K56" s="11">
+        <v>4476461</v>
+      </c>
+      <c r="L56" s="11">
         <v>5206250</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>7103009</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>8004134</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>9093501</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>9297686</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>10171089</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>13039691</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>16742011</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>11132690</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>15805815</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>13120808</v>
+      </c>
+      <c r="W56" s="11">
+        <v>13346887</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>6072776</v>
+      </c>
+      <c r="E57" s="17">
+        <v>6383097</v>
+      </c>
+      <c r="F57" s="17">
+        <v>6068024</v>
+      </c>
+      <c r="G57" s="17">
+        <v>6921924</v>
+      </c>
+      <c r="H57" s="17">
+        <v>7719530</v>
+      </c>
+      <c r="I57" s="17">
+        <v>8558668</v>
+      </c>
+      <c r="J57" s="17">
+        <v>7811371</v>
+      </c>
+      <c r="K57" s="17">
+        <v>7776461</v>
+      </c>
+      <c r="L57" s="17">
         <v>8506250</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>10403009</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>11304134</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>12393501</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>31814760</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>32688163</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>35552969</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>39255289</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>41672038</v>
       </c>
-      <c r="M57" s="17">
+      <c r="U57" s="17">
         <v>46333502</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V57" s="17">
+        <v>43619831</v>
+      </c>
+      <c r="W57" s="17">
+        <v>43801785</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>13254295</v>
+      </c>
+      <c r="E58" s="19">
+        <v>12504417</v>
+      </c>
+      <c r="F58" s="19">
+        <v>13903644</v>
+      </c>
+      <c r="G58" s="19">
+        <v>17391357</v>
+      </c>
+      <c r="H58" s="19">
+        <v>17113870</v>
+      </c>
+      <c r="I58" s="19">
+        <v>16036253</v>
+      </c>
+      <c r="J58" s="19">
+        <v>16604224</v>
+      </c>
+      <c r="K58" s="19">
+        <v>17476850</v>
+      </c>
+      <c r="L58" s="19">
         <v>23643799</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>34924309</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>38562658</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>40443126</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>56767786</v>
       </c>
-      <c r="I58" s="19">
+      <c r="Q58" s="19">
         <v>61230304</v>
       </c>
-      <c r="J58" s="19">
+      <c r="R58" s="19">
         <v>82360959</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>97972337</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>102333384</v>
       </c>
-      <c r="M58" s="19">
+      <c r="U58" s="19">
         <v>100722501</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V58" s="19">
+        <v>96940220</v>
+      </c>
+      <c r="W58" s="19">
+        <v>109456512</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4201,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
